--- a/biology/Botanique/Parc_de_Dieppe/Parc_de_Dieppe.xlsx
+++ b/biology/Botanique/Parc_de_Dieppe/Parc_de_Dieppe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Dieppe est un petit parc public de Montréal situé à l'extrémité de la presqu'île de la Cité-du-Havre dans l'arrondissement Ville-Marie.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de Dieppe occupe la pointe de la presqu'île de la Cité-du-Havre. Celle-ci résulte de l'allongement et de l'élargissement, en vue de l'Exposition universelle de 1967, de la précédente Jetée Mackay qui était une digue de protection du port contre les débâcles printanières du fleuve Saint-Laurent et les inondations consécutives du Vieux-Montréal. Cette presqu'île, construite de main humaine, fut choisie pour constituer, avec les îles  Sainte-Hélène et Notre-Dame, le site de l' Expo 1967 [1]. Le terrain situé près et au-delà de l'emprise du  pont de la Concorde qui donne accès à l'île Sainte-Hélène,  toujours demeuré espace vert, a été aménagé en parc et nommé Parc de la Cité-du-Havre, dénomination qui fut officialisée le 24 janvier 1992[2].
-Le toponyme a été modifié en 2017 en celui de Parc de Dieppe[3] pour commémorer le raid de Dieppe et l'effort de guerre du fort contingent de soldats canadiens qui y ont participé. En date du 19 août 2017 une plaque commémorative y a été dévoilée par le maire de Montréal Denis Coderre pour souligner les 75 ans du raid de Dieppe, en Normandie, France, ayant eu lieu le 19 août 1942, rendre hommage aux valeureux soldats canadiens qui y ont combattu et reconnaître le sacrifice ultime d'un très grand nombre d'entre eux[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de Dieppe occupe la pointe de la presqu'île de la Cité-du-Havre. Celle-ci résulte de l'allongement et de l'élargissement, en vue de l'Exposition universelle de 1967, de la précédente Jetée Mackay qui était une digue de protection du port contre les débâcles printanières du fleuve Saint-Laurent et les inondations consécutives du Vieux-Montréal. Cette presqu'île, construite de main humaine, fut choisie pour constituer, avec les îles  Sainte-Hélène et Notre-Dame, le site de l' Expo 1967 . Le terrain situé près et au-delà de l'emprise du  pont de la Concorde qui donne accès à l'île Sainte-Hélène,  toujours demeuré espace vert, a été aménagé en parc et nommé Parc de la Cité-du-Havre, dénomination qui fut officialisée le 24 janvier 1992.
+Le toponyme a été modifié en 2017 en celui de Parc de Dieppe pour commémorer le raid de Dieppe et l'effort de guerre du fort contingent de soldats canadiens qui y ont participé. En date du 19 août 2017 une plaque commémorative y a été dévoilée par le maire de Montréal Denis Coderre pour souligner les 75 ans du raid de Dieppe, en Normandie, France, ayant eu lieu le 19 août 1942, rendre hommage aux valeureux soldats canadiens qui y ont combattu et reconnaître le sacrifice ultime d'un très grand nombre d'entre eux,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc est de petite superficie (sept hectares)[6], mais offre un excellent point d'observation du fleuve Saint-Laurent, du Vieux-Port et du Centre-Ville de Montréal. Le site est pourvu d'un belvédère et d'un pavillon ouvert situés judicieusement sur l'extrême pointe du parc et de la presqu'île. Le parc est sillonné de sentiers destinés aux visiteurs, marcheurs ou cyclistes. Il dispose d'aires de pique-nique munies de nombreuses tables et de BBQ où les gens apportent des briquettes. L'accès facile aux berges attire des pêcheurs récréatifs qui y capturent entre autres le doré, l'achigan et même l'esturgeon.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est de petite superficie (sept hectares), mais offre un excellent point d'observation du fleuve Saint-Laurent, du Vieux-Port et du Centre-Ville de Montréal. Le site est pourvu d'un belvédère et d'un pavillon ouvert situés judicieusement sur l'extrême pointe du parc et de la presqu'île. Le parc est sillonné de sentiers destinés aux visiteurs, marcheurs ou cyclistes. Il dispose d'aires de pique-nique munies de nombreuses tables et de BBQ où les gens apportent des briquettes. L'accès facile aux berges attire des pêcheurs récréatifs qui y capturent entre autres le doré, l'achigan et même l'esturgeon.
 </t>
         </is>
       </c>
